--- a/forms/contact/create_household.xlsx
+++ b/forms/contact/create_household.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="4867" activeTab="1"/>
+    <workbookView windowWidth="14400" windowHeight="4867" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="290">
   <si>
     <t>type</t>
   </si>
@@ -319,7 +319,7 @@
     <t>**Tafadhali thibitisha kuwa nambari za simu ni sahihi** **Nambari ya Msingi:** ${phone1} **Nambari ya Pili:** ${phone2}</t>
   </si>
   <si>
-    <t>Living Conditions</t>
+    <t>conditions</t>
   </si>
   <si>
     <t>Household Information</t>
@@ -328,13 +328,13 @@
     <t>select_multiple house_location</t>
   </si>
   <si>
-    <t>House Location</t>
+    <t>house_location</t>
   </si>
   <si>
     <t>Where is your house located?</t>
   </si>
   <si>
-    <t>Preventive Measures</t>
+    <t>preventive_measures</t>
   </si>
   <si>
     <t>Does your family sleep under treated mosquito net?</t>
@@ -346,7 +346,7 @@
     <t>&lt;p style = "color:red; font-weight:bold"&gt;Advise the household member on the importance of sleeping under treated mosquito net. The local health facility can provide 3 free for them.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>${treatment} = ‘no’</t>
+    <t>${preventive_measures} = ‘no’</t>
   </si>
   <si>
     <t>hidden</t>
@@ -675,58 +675,22 @@
     <t>${water}  =  ‘yes’</t>
   </si>
   <si>
-    <t>watertreatment</t>
-  </si>
-  <si>
-    <t>They treat water</t>
-  </si>
-  <si>
-    <t>${treatment} =  ‘yes’</t>
-  </si>
-  <si>
-    <t>nowatertreatment</t>
-  </si>
-  <si>
-    <t>They do not treat water</t>
-  </si>
-  <si>
-    <t>${treatment} =  ‘no’</t>
-  </si>
-  <si>
-    <t>handfacility</t>
-  </si>
-  <si>
-    <t>Hand washing Facility is available</t>
-  </si>
-  <si>
-    <t>${handwashing} =  ‘yes’</t>
-  </si>
-  <si>
-    <t>nohandfacility</t>
-  </si>
-  <si>
-    <t>No hand washing facility</t>
-  </si>
-  <si>
-    <t>${handwashing} =  ‘no’</t>
-  </si>
-  <si>
-    <t>latriness</t>
-  </si>
-  <si>
-    <t>They have a functional latrine</t>
-  </si>
-  <si>
-    <t>${latrine} =  ‘yes’</t>
-  </si>
-  <si>
-    <t>nolatrine</t>
-  </si>
-  <si>
-    <t>No functional latrine</t>
-  </si>
-  <si>
-    <t>${latrine} =  ‘no’</t>
+    <t>where_they_stay</t>
+  </si>
+  <si>
+    <t>They stay in a malaria prone area</t>
+  </si>
+  <si>
+    <t>${house_location} =  'safe_place'</t>
+  </si>
+  <si>
+    <t>take_preventive_measures</t>
+  </si>
+  <si>
+    <t>They take preventive measures</t>
+  </si>
+  <si>
+    <t>${preventive_measures} =  ‘yes’</t>
   </si>
   <si>
     <t>n_submit</t>
@@ -816,9 +780,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>house_location</t>
-  </si>
-  <si>
     <t>standing_water</t>
   </si>
   <si>
@@ -873,33 +834,6 @@
     <t>Sister</t>
   </si>
   <si>
-    <t>treat_water</t>
-  </si>
-  <si>
-    <t>boil</t>
-  </si>
-  <si>
-    <t>Boiling</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Water filter</t>
-  </si>
-  <si>
-    <t>aqua_tabs</t>
-  </si>
-  <si>
-    <t>Aqua tabs</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>under5</t>
   </si>
   <si>
@@ -912,24 +846,6 @@
     <t>Over 5</t>
   </si>
   <si>
-    <t>safe_water_choices</t>
-  </si>
-  <si>
-    <t>boiling</t>
-  </si>
-  <si>
-    <t>chlorination</t>
-  </si>
-  <si>
-    <t>Chlorination</t>
-  </si>
-  <si>
-    <t>filtration</t>
-  </si>
-  <si>
-    <t>Filtration</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -945,7 +861,7 @@
     <t>New Household</t>
   </si>
   <si>
-    <t>create_household</t>
+    <t>contact:create_household</t>
   </si>
   <si>
     <t>2020-01-27</t>
@@ -988,10 +904,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,6 +978,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1071,22 +1062,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,6 +1076,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1115,66 +1100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1183,31 +1108,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,7 +1185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,13 +1209,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,13 +1341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,139 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,6 +1418,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1520,6 +1453,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,24 +1489,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1571,186 +1501,165 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1796,9 +1705,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1823,6 +1729,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2214,12 +2123,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AB997"/>
+  <dimension ref="A1:AB993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="$A42:$XFD42"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -2233,10 +2142,10 @@
     <col min="7" max="7" width="11.575" style="1" customWidth="1"/>
     <col min="8" max="9" width="10.0083333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="52.2916666666667" style="16" customWidth="1"/>
+    <col min="11" max="11" width="52.2916666666667" style="15" customWidth="1"/>
     <col min="12" max="12" width="10.0083333333333" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.7166666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.575" style="16" customWidth="1"/>
+    <col min="14" max="14" width="9.575" style="15" customWidth="1"/>
     <col min="15" max="24" width="8.15" style="1" customWidth="1"/>
     <col min="25" max="28" width="16.0083333333333" style="1" customWidth="1"/>
   </cols>
@@ -2289,20 +2198,20 @@
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="9"/>
@@ -2316,16 +2225,16 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="9"/>
@@ -2341,16 +2250,16 @@
       <c r="O3" s="9"/>
     </row>
     <row r="4" ht="20.25" customHeight="1" spans="1:15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="9"/>
@@ -2366,13 +2275,13 @@
       <c r="O4" s="9"/>
     </row>
     <row r="5" ht="20.25" customHeight="1" spans="1:15">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="9"/>
@@ -2389,13 +2298,13 @@
       <c r="O5" s="9"/>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:15">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="9"/>
@@ -2412,7 +2321,7 @@
       <c r="O6" s="9"/>
     </row>
     <row r="7" ht="20.25" customHeight="1" spans="1:15">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="9"/>
@@ -2431,7 +2340,7 @@
       <c r="O7" s="9"/>
     </row>
     <row r="8" ht="20.25" customHeight="1" spans="1:15">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="9"/>
@@ -2579,17 +2488,17 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" ht="20.25" customHeight="1" spans="1:28">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="3"/>
@@ -2617,13 +2526,13 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" ht="20.25" customHeight="1" spans="1:28">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="13"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2649,11 +2558,11 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" ht="20.25" customHeight="1" spans="1:28">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="13"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2679,19 +2588,19 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:28">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="3"/>
@@ -2717,13 +2626,13 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:28">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="3"/>
@@ -2736,7 +2645,7 @@
       <c r="I17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="21" t="s">
         <v>41</v>
       </c>
       <c r="K17" s="29"/>
@@ -2759,13 +2668,13 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" ht="20.25" customHeight="1" spans="1:28">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="3"/>
@@ -2801,7 +2710,7 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" ht="20.25" customHeight="1" spans="1:28">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2843,7 +2752,7 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" ht="20.25" customHeight="1" spans="1:28">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -2885,13 +2794,13 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" ht="20.25" customHeight="1" spans="1:28">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="13"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2917,11 +2826,11 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" ht="20.25" customHeight="1" spans="1:28">
-      <c r="A22" s="20"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="13"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3407,10 +3316,10 @@
       <c r="B34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="24" t="s">
         <v>99</v>
       </c>
       <c r="E34" s="3"/>
@@ -3646,17 +3555,17 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:28">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>108</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="13" t="s">
         <v>109</v>
       </c>
@@ -5481,10 +5390,10 @@
       <c r="B88" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D88" s="15"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -5891,126 +5800,54 @@
       </c>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" ht="18" customHeight="1" spans="1:8">
+    <row r="105" ht="18" customHeight="1" spans="1:4">
       <c r="A105" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="F105" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" ht="18" customHeight="1" spans="1:8">
-      <c r="A106" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="F106" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" ht="18" customHeight="1" spans="1:8">
-      <c r="A107" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="F107" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" ht="18" customHeight="1" spans="1:8">
-      <c r="A108" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="F108" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" ht="18" customHeight="1" spans="1:4">
-      <c r="A109" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" ht="18" customHeight="1" spans="1:28">
-      <c r="A110" s="4" t="s">
+    </row>
+    <row r="106" ht="18" customHeight="1" spans="1:28">
+      <c r="A106" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="28"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
-      <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
-      <c r="Y110" s="4"/>
-      <c r="Z110" s="4"/>
-      <c r="AA110" s="4"/>
-      <c r="AB110" s="4"/>
-    </row>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
+    </row>
+    <row r="107" ht="18" customHeight="1"/>
+    <row r="108" ht="18" customHeight="1"/>
+    <row r="109" ht="18" customHeight="1"/>
+    <row r="110" ht="18" customHeight="1"/>
     <row r="111" ht="18" customHeight="1"/>
     <row r="112" ht="18" customHeight="1"/>
     <row r="113" ht="18" customHeight="1"/>
@@ -6018,23 +5855,23 @@
     <row r="115" ht="18" customHeight="1"/>
     <row r="116" ht="18" customHeight="1"/>
     <row r="117" ht="18" customHeight="1"/>
-    <row r="118" ht="18" customHeight="1"/>
-    <row r="119" ht="18" customHeight="1"/>
-    <row r="120" ht="18" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
     <row r="121" ht="18" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="18" customHeight="1"/>
-    <row r="126" ht="18" customHeight="1"/>
-    <row r="127" ht="18" customHeight="1"/>
+    <row r="122" ht="18" customHeight="1"/>
+    <row r="123" ht="18" customHeight="1"/>
+    <row r="124" ht="18" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
     <row r="128" ht="18" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="129" ht="18" customHeight="1"/>
+    <row r="130" ht="18" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="18" customHeight="1"/>
-    <row r="133" ht="18" customHeight="1"/>
-    <row r="134" ht="18" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
     <row r="135" ht="15.75" customHeight="1"/>
     <row r="136" ht="15.75" customHeight="1"/>
     <row r="137" ht="15.75" customHeight="1"/>
@@ -6894,10 +6731,6 @@
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6909,10 +6742,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C1014"/>
+  <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="2"/>
@@ -6926,376 +6759,290 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:3">
       <c r="A4" s="13" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A11" s="14" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A12" s="14" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A14" s="14" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A18" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A19" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A20" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="21" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="22" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A24" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>276</v>
+        <v>158</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A25" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A26" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A27" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A28" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A29" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A30" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="31" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A31" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A32" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A33" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" s="10" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A34" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:3">
-      <c r="A35" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:3">
-      <c r="A36" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
+    </row>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
@@ -8263,17 +8010,6 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -8287,8 +8023,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="5"/>
@@ -8305,37 +8041,37 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:6">
       <c r="A1" s="9" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -9366,15 +9102,15 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
@@ -9426,7 +9162,7 @@
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -9455,7 +9191,7 @@
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5"/>
@@ -9484,7 +9220,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:25">
       <c r="A5" s="3" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
@@ -9513,7 +9249,7 @@
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:25">
       <c r="A6" s="3" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7"/>
@@ -9542,7 +9278,7 @@
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:25">
       <c r="A7" s="3" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
